--- a/IE11-ADF Patch/IQ - ADF_11.1.2.4-IE11-patch.xlsx
+++ b/IE11-ADF Patch/IQ - ADF_11.1.2.4-IE11-patch.xlsx
@@ -4,19 +4,34 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="2235" windowWidth="22995" windowHeight="9855" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="655" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="prerequiste" sheetId="5" r:id="rId1"/>
-    <sheet name="Steps" sheetId="1" r:id="rId2"/>
-    <sheet name="Parameters" sheetId="4" r:id="rId3"/>
+    <sheet name="prerequiste" sheetId="1" r:id="rId1"/>
+    <sheet name="Steps" sheetId="2" r:id="rId2"/>
+    <sheet name="Parameters" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+  <si>
+    <t>Test Objective -</t>
+  </si>
+  <si>
+    <t>1. Installallation of scripts for the PDR Server &amp; Application Deployment.</t>
+  </si>
+  <si>
+    <t>Pre-requisites -</t>
+  </si>
+  <si>
+    <t>OPatch Utility:  p6880880_111000_MSWIN-x86-64.zip</t>
+  </si>
+  <si>
+    <t>Patch:  p18277436_111240_Generic.zip</t>
+  </si>
   <si>
     <t>Attachment</t>
   </si>
@@ -36,73 +51,43 @@
     <t>Step 1</t>
   </si>
   <si>
+    <t>Log on to &lt;PDR_WLS_SERVER&gt; using &lt;ADMIN_ACCOUNT&gt; and &lt;ADMIN_PASSWORD&gt;</t>
+  </si>
+  <si>
+    <t>User is logged in</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
     <t>Step 2</t>
   </si>
   <si>
+    <t>Unzip  &lt;DISTRIBUTION_DIRECTORY&gt;/&lt;OPATCH_UTILITY&gt;   to   &lt;JDEV_HOME&gt;</t>
+  </si>
+  <si>
+    <t>OPatch is unzipped under Jdeveloper</t>
+  </si>
+  <si>
     <t>Step 3</t>
   </si>
   <si>
+    <t>Unzip  &lt;DISTRIBUTION_DIRECTORY&gt;/&lt;PATCH&gt;  to &lt;TEMP_DIRECTORY&gt;</t>
+  </si>
+  <si>
+    <t>The patch is unzipped</t>
+  </si>
+  <si>
     <t>Step 4</t>
   </si>
   <si>
+    <t>Open a command window</t>
+  </si>
+  <si>
+    <t>The command window is opened</t>
+  </si>
+  <si>
     <t>Step 5</t>
-  </si>
-  <si>
-    <t>Step 6</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Item Name</t>
-  </si>
-  <si>
-    <t>Item Value</t>
-  </si>
-  <si>
-    <t>*REDACTED*</t>
-  </si>
-  <si>
-    <t>DISTRIBUTION_DIRECTORY</t>
-  </si>
-  <si>
-    <t>ADMIN_ACCOUNT</t>
-  </si>
-  <si>
-    <t>ADMIN_PASSWORD</t>
-  </si>
-  <si>
-    <t>User is logged in</t>
-  </si>
-  <si>
-    <t>Step 7</t>
-  </si>
-  <si>
-    <t>Step 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Objective - </t>
-  </si>
-  <si>
-    <t>1. Installallation of scripts for the PDR Server &amp; Application Deployment.</t>
-  </si>
-  <si>
-    <t>Pre-requisites -</t>
-  </si>
-  <si>
-    <t>Log on to &lt;PDR_WLS_SERVER&gt; using &lt;ADMIN_ACCOUNT&gt; and &lt;ADMIN_PASSWORD&gt;</t>
-  </si>
-  <si>
-    <t>Open a command window</t>
-  </si>
-  <si>
-    <t>The command window is opened</t>
-  </si>
-  <si>
-    <t>The ORACLE_HOME is set</t>
   </si>
   <si>
     <r>
@@ -111,21 +96,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Courier New"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
-      <t>SET ORACLE_HOME=&lt;JDEV_HOME&gt;</t>
+      <t>SET ORACLE_HOME=&lt;JDEV_HOME&gt;\common</t>
     </r>
   </si>
   <si>
-    <t>D:\Oracle\Middleware\jdeveloper</t>
-  </si>
-  <si>
-    <t>JDEV_HOME</t>
-  </si>
-  <si>
-    <t>The PATH is set</t>
+    <t>The ORACLE_HOME is set</t>
+  </si>
+  <si>
+    <t>Step 6</t>
   </si>
   <si>
     <r>
@@ -134,18 +117,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Courier New"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t>SET PATH=%PATH%;&lt;JDEV_HOME&gt;\OPatch;&lt;JDK&gt;</t>
     </r>
   </si>
   <si>
-    <t>D:\Oracle\Middleware\jdk160_24</t>
-  </si>
-  <si>
-    <t>JDK</t>
+    <t>The PATH is set</t>
+  </si>
+  <si>
+    <t>Step 7</t>
   </si>
   <si>
     <r>
@@ -154,42 +138,41 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Courier New"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t>opatch version -jdk &lt;JDK&gt;</t>
     </r>
   </si>
   <si>
-    <t>p6880880_111000_MSWIN-x86-64.zip</t>
-  </si>
-  <si>
-    <t>p18277436_111240_Generic.zip</t>
-  </si>
-  <si>
-    <t>OPatch Utility:  p6880880_111000_MSWIN-x86-64.zip</t>
-  </si>
-  <si>
-    <t>Patch:  p18277436_111240_Generic.zip</t>
-  </si>
-  <si>
-    <t>OPATCH_UTILITY</t>
-  </si>
-  <si>
-    <t>PATCH</t>
-  </si>
-  <si>
-    <t>Unzip  &lt;DISTRIBUTION_DIRECTORY&gt;/&lt;OPATCH_UTILITY&gt;   to   &lt;JDEV_HOME&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unzip  &lt;DISTRIBUTION_DIRECTORY&gt;/&lt;PATCH&gt; </t>
-  </si>
-  <si>
-    <t>OPatch is unzipped under Jdeve</t>
-  </si>
-  <si>
-    <t>The patch is unzipped</t>
+    <t>OPatch Version: 11.1.0.12.9
+OPatch succeeded.</t>
+  </si>
+  <si>
+    <t>Step 8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EXECUTE COMMAND:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>cd  &lt;TEMP_DIRECTORY&gt;\18277436\sa\18277436</t>
+    </r>
+  </si>
+  <si>
+    <t>The directory is changed</t>
+  </si>
+  <si>
+    <t>Step 9</t>
   </si>
   <si>
     <r>
@@ -198,42 +181,22 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Courier New"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> opatch apply -jdk D:\Oracle\Middleware\jdk160_24</t>
+      <t xml:space="preserve"> opatch apply -jdk &lt;JDK&gt;</t>
     </r>
   </si>
   <si>
-    <t>The directory is changed</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EXECUTE COMMAND:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>cd  &lt;DISTRIBUTION_DIRECTORY&gt;\p18277436_111240_Generic\18277436\sa\18277436</t>
-    </r>
-  </si>
-  <si>
-    <t>OPatch Version: 11.1.0.12.9
-OPatch succeeded.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle Interim Patch Installer version 11.1.0.12.9
+    <t>Oracle Interim Patch Installer version 11.1.0.12.9
 Copyright (c) 2015, Oracle Corporation.  All rights reserved.
 Oracle Home            : D:\Oracle\Middleware\jdeveloper\common
 Oracle Home Inventory  : n/a
 OPatch version         : 11.1.0.12.9
 Product information    : n/a
-Log file location      : D:\Oracle\Middleware\jdeveloper\common\cfgtoollogs\opatch\18277436_Dec_15_2015_19_59_10\apply2015-12-15_19-59-10PM_1.log
+Log file location      : D:\Oracle\Middleware\jdeveloper\common\cfgtoollogs\opatch\18277436_Dec_23_2015_20_20_12\apply2015-12-23_20-20-12PM_1.log
 Patch history file: D:\Oracle\Middleware\jdeveloper\common\cfgtoollogs\opatch\opatch_history.txt
 Applying interim patch '18277436' to OH 'D:\Oracle\Middleware\jdeveloper\common'
 Verifying environment and performing prerequisite checks...
@@ -245,10 +208,14 @@
 ------                          -------                         -------
 1                               SA_JDEV                         11.1.2.4.0
 2. If you wish, quit 'product.xml' creation
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Responded with: 1
+Please enter [1-2]:</t>
+  </si>
+  <si>
+    <t>Press 1 and ENTER</t>
+  </si>
+  <si>
+    <t>1
+User Responded with: 1
 OPatch will put the information of selected product 'SA_JDEV' and selected version '11.1.2.4.0'
 in product.xml during inventory updation.
 All checks passed.
@@ -256,23 +223,32 @@
 initiate Oracle Configuration Manager. Easier for you if you use your My
 Oracle Support Email address/User Name.
 Visit http://www.oracle.com/support/policies.html for details.
-Email address/User Name:
-You have not provided an email address for notification of security issues.
-Do you wish to remain uninformed of security issues ([Y]es, [N]o) [N]:  y
-The setup file to configure OCM "D:\Oracle\Middleware\jdeveloper\common\ccr\bin\setupCCR.exe" could not be used.
+Email address/User Name:</t>
+  </si>
+  <si>
+    <t>Press ENTER</t>
+  </si>
+  <si>
+    <t>You have not provided an email address for notification of security issues.
+Do you wish to remain uninformed of security issues ([Y]es, [N]o) [N]:</t>
+  </si>
+  <si>
+    <t>Press Y and ENTER</t>
+  </si>
+  <si>
+    <t>The setup file to configure OCM "D:\Oracle\Middleware\jdeveloper\common\ccr\bin\setupCCR.exe" could not be used.
 Please shutdown Oracle instances running out of this ORACLE_HOME on the local system.
 (Oracle Home = 'D:\Oracle\Middleware\jdeveloper\common')
-Is the local system ready for patching? [y|n]
-</t>
+Is the local system ready for patching? [y|n]</t>
+  </si>
+  <si>
+    <t>Step 11</t>
   </si>
   <si>
     <t>When prompted with "Is the local system ready for patching? [y|n]"   Enter "y"</t>
   </si>
   <si>
-    <t>When prompted with "Please enter [1-2]:"   Enter "1"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Responded with: Y
+    <t>User Responded with: Y
 Backing up files...
 Patching component oracle.jdeveloper, 11.1.2.4.0...
 Attempting to create/replace 'product.xml' as requested...
@@ -280,8 +256,10 @@
 Verifying the update...
 Patch 18277436 successfully applied
 Log file location: D:\Oracle\Middleware\jdeveloper\common\cfgtoollogs\opatch\18277436_Dec_15_2015_19_59_10\apply2015-12-15_19-59-10PM_1.log
-OPatch succeeded.
-</t>
+OPatch succeeded.</t>
+  </si>
+  <si>
+    <t>Step 12</t>
   </si>
   <si>
     <r>
@@ -290,27 +268,16 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Courier New"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
-      <t>opatch lsinventory -jdk D:\Oracle\Middleware\jdk160_24</t>
+      <t>opatch lsinventory -jdk &lt;JDK&gt;</t>
     </r>
   </si>
   <si>
-    <t>Step 9</t>
-  </si>
-  <si>
-    <t>Step 10</t>
-  </si>
-  <si>
-    <t>Step 11</t>
-  </si>
-  <si>
-    <t>Step 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle Interim Patch Installer version 11.1.0.12.9
+    <t>Oracle Interim Patch Installer version 11.1.0.12.9
 Copyright (c) 2015, Oracle Corporation.  All rights reserved.
 Oracle Home            : D:\Oracle\Middleware\jdeveloper\common
 Oracle Home Inventory  : D:\Oracle\Middleware\jdeveloper\common\sainventory
@@ -329,43 +296,112 @@
    Bugs fixed:
      17723794, 17236592, 17672146, 17814870, 17723555, 17776065, 18176711, 17814372
 --------------------------------------------------------------------------------
-OPatch succeeded.
-</t>
+OPatch succeeded.</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Item Value</t>
+  </si>
+  <si>
+    <t>ADMIN_ACCOUNT</t>
+  </si>
+  <si>
+    <t>nanet\tec_oparepd1</t>
+  </si>
+  <si>
+    <t>ADMIN_PASSWORD</t>
+  </si>
+  <si>
+    <t>*REDACTED*</t>
+  </si>
+  <si>
+    <t>DISTRIBUTION_DIRECTORY</t>
+  </si>
+  <si>
+    <t>\\phchbs-sd320108\D$\stage\FastPDR_deploy</t>
+  </si>
+  <si>
+    <t>JDEV_HOME</t>
+  </si>
+  <si>
+    <t>D:\Oracle\Middleware\jdeveloper</t>
+  </si>
+  <si>
+    <t>JDK</t>
+  </si>
+  <si>
+    <t>D:\Oracle\Middleware\jdk160_24</t>
+  </si>
+  <si>
+    <t>OPATCH_UTILITY</t>
+  </si>
+  <si>
+    <t>p6880880_111000_MSWIN-x86-64.zip</t>
+  </si>
+  <si>
+    <t>PATCH</t>
+  </si>
+  <si>
+    <t>p18277436_111240_Generic.zip</t>
+  </si>
+  <si>
+    <t>PDR_WLS_SERVER</t>
+  </si>
+  <si>
+    <t>PHCHBS-SD320107</t>
+  </si>
+  <si>
+    <t>TEMP_DIRECTORY</t>
+  </si>
+  <si>
+    <t>D:\TEMP\IE11PATCH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -387,26 +423,35 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -712,335 +757,378 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="121.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="121.7109375"/>
+    <col min="2" max="2" width="29.5703125"/>
+    <col min="3" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="119.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="110.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125"/>
+    <col min="2" max="2" width="10.7109375"/>
+    <col min="3" max="3" width="88.5703125"/>
+    <col min="4" max="4" width="110.5703125"/>
+    <col min="5" max="5" width="16.7109375"/>
+    <col min="6" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="172.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="360" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
+      <c r="E15" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" style="3"/>
+    <col min="2" max="2" width="57.7109375" style="8"/>
+    <col min="3" max="3" width="56.42578125"/>
+    <col min="4" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>51</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>59</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>61</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>63</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>65</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:B9">
-    <sortCondition ref="A2"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>